--- a/Data Raw/neuse_projected.xlsx
+++ b/Data Raw/neuse_projected.xlsx
@@ -8,13 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7f85cde45fb935f/Fall 2024/Hydrology/Week 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC395B68-BA72-D04B-AAA0-2AC70CCABD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{AC395B68-BA72-D04B-AAA0-2AC70CCABD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFB24DF2-23B6-9146-A9A4-F35CD6875BAF}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="1000" windowWidth="27640" windowHeight="15840" xr2:uid="{7A107787-AF98-3E45-944C-C0397F9794F6}"/>
+    <workbookView xWindow="5600" yWindow="1000" windowWidth="27640" windowHeight="15840" xr2:uid="{7A107787-AF98-3E45-944C-C0397F9794F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$77</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$2:$C$77</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$77</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$77</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$2:$A$77</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$B$77</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -425,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DED6AB6-98B5-C743-9CA2-B1120D78DF69}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,11 +1047,11 @@
         <v>2023</v>
       </c>
       <c r="B55">
-        <f>FORECAST(A55, B2:B54,A2:A54)</f>
+        <f>FORECAST(A55, B$2:B$54,A$2:A$54)</f>
         <v>47006145.894049406</v>
       </c>
       <c r="C55">
-        <f>FORECAST(A55, C2:C54,A2:A54)</f>
+        <f>FORECAST(A55, C$2:C$54,A$2:A$54)</f>
         <v>1426635413.1204643</v>
       </c>
     </row>
@@ -1046,12 +1060,12 @@
         <v>2024</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56:B77" si="0">FORECAST(A56, B3:B55,A3:A55)</f>
-        <v>44664013.03772223</v>
+        <f t="shared" ref="B56:B77" si="0">FORECAST(A56, B$2:B$54,A$2:A$54)</f>
+        <v>46646540.991453052</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:C77" si="1">FORECAST(A56, C3:C55,A3:A55)</f>
-        <v>1354589634.9524879</v>
+        <f t="shared" ref="C56:C77" si="1">FORECAST(A56, C$2:C$54,A$2:A$54)</f>
+        <v>1415779889.385582</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1060,11 +1074,11 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>44510930.955894113</v>
+        <v>46286936.088856697</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>1349700742.4965363</v>
+        <v>1404924365.6507034</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1073,11 +1087,11 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>45012301.679129004</v>
+        <v>45927331.186260343</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>1365010103.6543121</v>
+        <v>1394068841.9158211</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1086,11 +1100,11 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>45904664.565896988</v>
+        <v>45567726.283663988</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>1391340250.3947678</v>
+        <v>1383213318.1809387</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1099,11 +1113,11 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>45789771.26702404</v>
+        <v>45208121.381067634</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>1387462630.6258125</v>
+        <v>1372357794.4460564</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1112,11 +1126,11 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>47352850.069181085</v>
+        <v>44848516.478471279</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>1435545617.8182869</v>
+        <v>1361502270.7111778</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1125,11 +1139,11 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>45881760.430571198</v>
+        <v>44488911.575874925</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>1390945469.1443901</v>
+        <v>1350646746.9762955</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1138,11 +1152,11 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>44423576.472205997</v>
+        <v>44129306.67327857</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>1346983947.5274315</v>
+        <v>1339791223.2414131</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1151,11 +1165,11 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>45138874.726495624</v>
+        <v>43769701.770682216</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>1369963659.0486412</v>
+        <v>1328935699.5065308</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1164,11 +1178,11 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>46263172.809543908</v>
+        <v>43410096.868085861</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>1403370030.4795971</v>
+        <v>1318080175.7716522</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1177,11 +1191,11 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>45553312.609179616</v>
+        <v>43050491.965489507</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>1382326361.5997181</v>
+        <v>1307224652.0367699</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1190,11 +1204,11 @@
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
-        <v>43962297.082061768</v>
+        <v>42690887.062893152</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
-        <v>1334240752.8831635</v>
+        <v>1296369128.3018875</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1203,11 +1217,11 @@
       </c>
       <c r="B68">
         <f t="shared" si="0"/>
-        <v>44911217.924575329</v>
+        <v>42331282.160296798</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>1363044554.332552</v>
+        <v>1285513604.5670052</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1216,11 +1230,11 @@
       </c>
       <c r="B69">
         <f t="shared" si="0"/>
-        <v>45442273.760830045</v>
+        <v>41971677.257700443</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>1379003037.271122</v>
+        <v>1274658080.8321228</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1229,11 +1243,11 @@
       </c>
       <c r="B70">
         <f t="shared" si="0"/>
-        <v>46782978.198824048</v>
+        <v>41612072.355104089</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>1420182626.9169579</v>
+        <v>1263802557.0972443</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1242,11 +1256,11 @@
       </c>
       <c r="B71">
         <f t="shared" si="0"/>
-        <v>46771307.784328103</v>
+        <v>41252467.452507734</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>1418808260.8380861</v>
+        <v>1252947033.3623619</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1255,11 +1269,11 @@
       </c>
       <c r="B72">
         <f t="shared" si="0"/>
-        <v>45443123.610975862</v>
+        <v>40892862.54991138</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>1378543942.688858</v>
+        <v>1242091509.6274796</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1268,11 +1282,11 @@
       </c>
       <c r="B73">
         <f t="shared" si="0"/>
-        <v>45550632.212382913</v>
+        <v>40533257.647315025</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>1381466385.4467163</v>
+        <v>1231235985.8925972</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1281,11 +1295,11 @@
       </c>
       <c r="B74">
         <f t="shared" si="0"/>
-        <v>43957497.434772134</v>
+        <v>40173652.744718671</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>1333079505.5766716</v>
+        <v>1220380462.1577187</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1294,11 +1308,11 @@
       </c>
       <c r="B75">
         <f t="shared" si="0"/>
-        <v>45597627.447067976</v>
+        <v>39814047.842122316</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>1383959200.2619076</v>
+        <v>1209524938.4228363</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1307,11 +1321,11 @@
       </c>
       <c r="B76">
         <f t="shared" si="0"/>
-        <v>45730982.397661656</v>
+        <v>39454442.939525962</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>1387417020.4409971</v>
+        <v>1198669414.6879539</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1320,11 +1334,11 @@
       </c>
       <c r="B77">
         <f t="shared" si="0"/>
-        <v>45042344.742682517</v>
+        <v>39094838.036929607</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>1366978440.9813652</v>
+        <v>1187813890.9530716</v>
       </c>
     </row>
   </sheetData>
